--- a/raw_data/20200818_saline/20200818_Sensor0_Test_85.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_85.xlsx
@@ -1,1746 +1,2162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAD37B1-3C8B-4855-AD44-745A8BA31339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>75602.909009</v>
+        <v>75602.909008999995</v>
       </c>
       <c r="B2" s="1">
-        <v>21.000808</v>
+        <v>21.000807999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>903.919000</v>
+        <v>903.91899999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-191.869000</v>
+        <v>-191.869</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>75613.306147</v>
+        <v>75613.306146999996</v>
       </c>
       <c r="G2" s="1">
-        <v>21.003696</v>
+        <v>21.003696000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>920.660000</v>
+        <v>920.66</v>
       </c>
       <c r="I2" s="1">
-        <v>-163.595000</v>
+        <v>-163.595</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>75623.757750</v>
+        <v>75623.757750000004</v>
       </c>
       <c r="L2" s="1">
-        <v>21.006599</v>
+        <v>21.006599000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>943.498000</v>
+        <v>943.49800000000005</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.599000</v>
+        <v>-118.599</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>75634.281991</v>
+        <v>75634.281990999996</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.009523</v>
+        <v>21.009523000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>950.466000</v>
+        <v>950.46600000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.648000</v>
+        <v>-103.648</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>75645.171626</v>
+        <v>75645.171625999996</v>
       </c>
       <c r="V2" s="1">
-        <v>21.012548</v>
+        <v>21.012547999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>957.316000</v>
+        <v>957.31600000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.054800</v>
+        <v>-90.0548</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>75655.633279</v>
+        <v>75655.633279000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.015454</v>
+        <v>21.015453999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.964000</v>
+        <v>964.96400000000006</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.583400</v>
+        <v>-80.583399999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>75665.990734</v>
+        <v>75665.990734000006</v>
       </c>
       <c r="AF2" s="1">
         <v>21.018331</v>
       </c>
       <c r="AG2" s="1">
-        <v>970.073000</v>
+        <v>970.07299999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.000300</v>
+        <v>-80.000299999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>75676.067424</v>
+        <v>75676.067423999993</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.021130</v>
+        <v>21.021129999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.133000</v>
+        <v>978.13300000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.534600</v>
+        <v>-87.534599999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>75686.273602</v>
+        <v>75686.273602000001</v>
       </c>
       <c r="AP2" s="1">
         <v>21.023965</v>
       </c>
       <c r="AQ2" s="1">
-        <v>987.312000</v>
+        <v>987.31200000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.198000</v>
+        <v>-102.19799999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>75696.883530</v>
+        <v>75696.883530000006</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.026912</v>
+        <v>21.026911999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>998.645000</v>
+        <v>998.64499999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.466000</v>
+        <v>-123.46599999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>75707.664566</v>
+        <v>75707.664566000007</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.029907</v>
+        <v>21.029907000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1008.230000</v>
+        <v>1008.23</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.026000</v>
+        <v>-142.02600000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>75718.580519</v>
+        <v>75718.580518999996</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.032939</v>
+        <v>21.032938999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1053.390000</v>
+        <v>1053.3900000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.071000</v>
+        <v>-226.071</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>75729.613561</v>
+        <v>75729.613561000006</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.036004</v>
+        <v>21.036003999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.720000</v>
+        <v>1132.72</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.536000</v>
+        <v>-360.536</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>75741.067642</v>
+        <v>75741.067641999995</v>
       </c>
       <c r="BO2" s="1">
         <v>21.039185</v>
       </c>
       <c r="BP2" s="1">
-        <v>1263.730000</v>
+        <v>1263.73</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-567.445000</v>
+        <v>-567.44500000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>75751.784731</v>
+        <v>75751.784731000007</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.042162</v>
+        <v>21.042162000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1410.260000</v>
+        <v>1410.26</v>
       </c>
       <c r="BV2" s="1">
-        <v>-788.122000</v>
+        <v>-788.12199999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>75762.472030</v>
+        <v>75762.472030000004</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.045131</v>
+        <v>21.045131000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1569.850000</v>
+        <v>1569.85</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1017.580000</v>
+        <v>-1017.58</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>75773.397903</v>
+        <v>75773.397903000005</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.048166</v>
+        <v>21.048165999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1971.400000</v>
+        <v>1971.4</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1555.270000</v>
+        <v>-1555.27</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>75603.281008</v>
+        <v>75603.281008000005</v>
       </c>
       <c r="B3" s="1">
-        <v>21.000911</v>
+        <v>21.000910999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>903.880000</v>
+        <v>903.88</v>
       </c>
       <c r="D3" s="1">
-        <v>-191.853000</v>
+        <v>-191.85300000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>75613.674681</v>
+        <v>75613.674681000004</v>
       </c>
       <c r="G3" s="1">
-        <v>21.003799</v>
+        <v>21.003799000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>920.869000</v>
+        <v>920.86900000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-163.578000</v>
+        <v>-163.578</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>75624.125381</v>
+        <v>75624.125381000005</v>
       </c>
       <c r="L3" s="1">
         <v>21.006701</v>
       </c>
       <c r="M3" s="1">
-        <v>943.564000</v>
+        <v>943.56399999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.423000</v>
+        <v>-118.423</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>75634.971398</v>
+        <v>75634.971397999994</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.009714</v>
+        <v>21.009713999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>950.406000</v>
+        <v>950.40599999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.624000</v>
+        <v>-103.624</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>75645.590261</v>
+        <v>75645.590261000005</v>
       </c>
       <c r="V3" s="1">
-        <v>21.012664</v>
+        <v>21.012664000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>957.375000</v>
+        <v>957.375</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.083400</v>
+        <v>-90.083399999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>75656.050874</v>
+        <v>75656.050873999993</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.015570</v>
+        <v>21.01557</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.944000</v>
+        <v>964.94399999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.646900</v>
+        <v>-80.646900000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>75666.334429</v>
+        <v>75666.334428999995</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.018426</v>
+        <v>21.018426000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>970.094000</v>
+        <v>970.09400000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.012800</v>
+        <v>-80.012799999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>75676.418095</v>
+        <v>75676.418095000001</v>
       </c>
       <c r="AK3" s="1">
         <v>21.021227</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.117000</v>
+        <v>978.11699999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.502500</v>
+        <v>-87.502499999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>75686.662498</v>
+        <v>75686.662498000005</v>
       </c>
       <c r="AP3" s="1">
-        <v>21.024073</v>
+        <v>21.024073000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>987.319000</v>
+        <v>987.31899999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.188000</v>
+        <v>-102.188</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>75697.311571</v>
+        <v>75697.311570999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.027031</v>
+        <v>21.027031000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>998.626000</v>
+        <v>998.62599999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.459000</v>
+        <v>-123.459</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>75708.085174</v>
+        <v>75708.085174000007</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.030024</v>
+        <v>21.030024000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1008.210000</v>
+        <v>1008.21</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.015000</v>
+        <v>-142.01499999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>75719.019015</v>
+        <v>75719.019014999998</v>
       </c>
       <c r="BE3" s="1">
         <v>21.033061</v>
       </c>
       <c r="BF3" s="1">
-        <v>1053.380000</v>
+        <v>1053.3800000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.068000</v>
+        <v>-226.06800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>75729.991976</v>
+        <v>75729.991976000005</v>
       </c>
       <c r="BJ3" s="1">
         <v>21.036109</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.740000</v>
+        <v>1132.74</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.530000</v>
+        <v>-360.53</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>75741.477339</v>
+        <v>75741.477339000005</v>
       </c>
       <c r="BO3" s="1">
         <v>21.039299</v>
       </c>
       <c r="BP3" s="1">
-        <v>1263.720000</v>
+        <v>1263.72</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-567.428000</v>
+        <v>-567.428</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>75752.215261</v>
+        <v>75752.215261000005</v>
       </c>
       <c r="BT3" s="1">
         <v>21.042282</v>
       </c>
       <c r="BU3" s="1">
-        <v>1410.240000</v>
+        <v>1410.24</v>
       </c>
       <c r="BV3" s="1">
-        <v>-788.059000</v>
+        <v>-788.05899999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>75762.959070</v>
+        <v>75762.959069999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>21.045266</v>
+        <v>21.045266000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1569.770000</v>
+        <v>1569.77</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1017.550000</v>
+        <v>-1017.55</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>75773.945456</v>
+        <v>75773.945456000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.048318</v>
+        <v>21.048317999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>1971.020000</v>
+        <v>1971.02</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1553.670000</v>
+        <v>-1553.67</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>75603.623249</v>
+        <v>75603.623248999997</v>
       </c>
       <c r="B4" s="1">
         <v>21.001006</v>
       </c>
       <c r="C4" s="1">
-        <v>903.860000</v>
+        <v>903.86</v>
       </c>
       <c r="D4" s="1">
-        <v>-191.817000</v>
+        <v>-191.81700000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>75614.331378</v>
+        <v>75614.331378000003</v>
       </c>
       <c r="G4" s="1">
         <v>21.003981</v>
       </c>
       <c r="H4" s="1">
-        <v>920.765000</v>
+        <v>920.76499999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.651000</v>
+        <v>-163.65100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>75624.789524</v>
+        <v>75624.789524000007</v>
       </c>
       <c r="L4" s="1">
-        <v>21.006886</v>
+        <v>21.006886000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>943.422000</v>
+        <v>943.42200000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.455000</v>
+        <v>-118.455</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>75635.356294</v>
+        <v>75635.356293999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.009821</v>
+        <v>21.009820999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>950.403000</v>
+        <v>950.40300000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.639000</v>
+        <v>-103.639</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>75645.931992</v>
+        <v>75645.931991999998</v>
       </c>
       <c r="V4" s="1">
-        <v>21.012759</v>
+        <v>21.012758999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>957.264000</v>
+        <v>957.26400000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.147000</v>
+        <v>-90.147000000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>75656.399066</v>
+        <v>75656.399065999998</v>
       </c>
       <c r="AA4" s="1">
         <v>21.015666</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.904000</v>
+        <v>964.904</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.620900</v>
+        <v>-80.620900000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>75666.680140</v>
+        <v>75666.680139999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>21.018522</v>
+        <v>21.018522000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>970.031000</v>
+        <v>970.03099999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.023400</v>
+        <v>-80.023399999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>75676.844159</v>
       </c>
       <c r="AK4" s="1">
-        <v>21.021346</v>
+        <v>21.021346000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.124000</v>
+        <v>978.12400000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.498400</v>
+        <v>-87.498400000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>75687.097953</v>
+        <v>75687.097953000004</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.024194</v>
+        <v>21.024194000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>987.306000</v>
+        <v>987.30600000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.175000</v>
+        <v>-102.175</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>75697.663268</v>
+        <v>75697.663268000004</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.027129</v>
+        <v>21.027128999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>998.623000</v>
+        <v>998.62300000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.467000</v>
+        <v>-123.467</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>75708.398645</v>
+        <v>75708.398644999994</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.030111</v>
+        <v>21.030111000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1008.230000</v>
+        <v>1008.23</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.009000</v>
+        <v>-142.00899999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>75719.376598</v>
+        <v>75719.376598000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.033160</v>
+        <v>21.033159999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1053.400000</v>
+        <v>1053.4000000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.083000</v>
+        <v>-226.083</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>75730.366456</v>
+        <v>75730.366456000003</v>
       </c>
       <c r="BJ4" s="1">
         <v>21.036213</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.770000</v>
+        <v>1132.77</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.570000</v>
+        <v>-360.57</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>75742.039304</v>
+        <v>75742.039304000005</v>
       </c>
       <c r="BO4" s="1">
         <v>21.039455</v>
       </c>
       <c r="BP4" s="1">
-        <v>1263.710000</v>
+        <v>1263.71</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-567.470000</v>
+        <v>-567.47</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>75752.626411</v>
+        <v>75752.626411000005</v>
       </c>
       <c r="BT4" s="1">
         <v>21.042396</v>
       </c>
       <c r="BU4" s="1">
-        <v>1410.340000</v>
+        <v>1410.34</v>
       </c>
       <c r="BV4" s="1">
-        <v>-788.086000</v>
+        <v>-788.08600000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>75763.403980</v>
+        <v>75763.403980000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.045390</v>
+        <v>21.045390000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1569.670000</v>
+        <v>1569.67</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1017.620000</v>
+        <v>-1017.62</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>75774.459310</v>
+        <v>75774.459310000006</v>
       </c>
       <c r="CD4" s="1">
         <v>21.048461</v>
       </c>
       <c r="CE4" s="1">
-        <v>1969.560000</v>
+        <v>1969.56</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1554.880000</v>
+        <v>-1554.88</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>75604.279978</v>
+        <v>75604.279978000006</v>
       </c>
       <c r="B5" s="1">
         <v>21.001189</v>
       </c>
       <c r="C5" s="1">
-        <v>903.735000</v>
+        <v>903.73500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-191.809000</v>
+        <v>-191.809</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>75614.706354</v>
+        <v>75614.706353999994</v>
       </c>
       <c r="G5" s="1">
         <v>21.004085</v>
       </c>
       <c r="H5" s="1">
-        <v>920.464000</v>
+        <v>920.46400000000006</v>
       </c>
       <c r="I5" s="1">
-        <v>-163.641000</v>
+        <v>-163.64099999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>75625.231496</v>
+        <v>75625.231495999993</v>
       </c>
       <c r="L5" s="1">
         <v>21.007009</v>
       </c>
       <c r="M5" s="1">
-        <v>943.493000</v>
+        <v>943.49300000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.516000</v>
+        <v>-118.51600000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>75635.705477</v>
+        <v>75635.705476999996</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.009918</v>
+        <v>21.009917999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>950.395000</v>
+        <v>950.39499999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.575000</v>
+        <v>-103.575</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>75646.277208</v>
       </c>
       <c r="V5" s="1">
-        <v>21.012855</v>
+        <v>21.012854999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>957.274000</v>
+        <v>957.274</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.137700</v>
+        <v>-90.137699999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>75656.750729</v>
+        <v>75656.750729000007</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.015764</v>
+        <v>21.015764000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.945000</v>
+        <v>964.94500000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.551900</v>
+        <v>-80.551900000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>75667.107691</v>
+        <v>75667.107690999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.018641</v>
+        <v>21.018640999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>970.085000</v>
+        <v>970.08500000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.991800</v>
+        <v>-79.991799999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>75677.116960</v>
+        <v>75677.116959999999</v>
       </c>
       <c r="AK5" s="1">
         <v>21.021421</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.103000</v>
+        <v>978.10299999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.527100</v>
+        <v>-87.527100000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>75687.383649</v>
+        <v>75687.383648999996</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.024273</v>
+        <v>21.024273000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>987.312000</v>
+        <v>987.31200000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.178000</v>
+        <v>-102.178</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>75698.028791</v>
+        <v>75698.028791000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>21.027230</v>
+        <v>21.027229999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>998.630000</v>
+        <v>998.63</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.466000</v>
+        <v>-123.46599999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>75708.757749</v>
+        <v>75708.757748999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.030210</v>
+        <v>21.03021</v>
       </c>
       <c r="BA5" s="1">
-        <v>1008.230000</v>
+        <v>1008.23</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.017000</v>
+        <v>-142.017</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>75719.739174</v>
+        <v>75719.739174000002</v>
       </c>
       <c r="BE5" s="1">
         <v>21.033261</v>
       </c>
       <c r="BF5" s="1">
-        <v>1053.380000</v>
+        <v>1053.3800000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.073000</v>
+        <v>-226.07300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>75731.116935</v>
+        <v>75731.116934999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.036421</v>
+        <v>21.036421000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.770000</v>
+        <v>1132.77</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.552000</v>
+        <v>-360.55200000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>75742.299240</v>
+        <v>75742.299239999993</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.039528</v>
+        <v>21.039528000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1263.690000</v>
+        <v>1263.69</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-567.452000</v>
+        <v>-567.452</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>75753.064874</v>
+        <v>75753.064874000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>21.042518</v>
+        <v>21.042518000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1410.330000</v>
+        <v>1410.33</v>
       </c>
       <c r="BV5" s="1">
-        <v>-788.025000</v>
+        <v>-788.02499999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>75763.863315</v>
+        <v>75763.863314999995</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.045518</v>
+        <v>21.045518000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1569.660000</v>
+        <v>1569.66</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1017.790000</v>
+        <v>-1017.79</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>75774.977133</v>
+        <v>75774.977132999993</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.048605</v>
+        <v>21.048604999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1970.820000</v>
+        <v>1970.82</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1556.030000</v>
+        <v>-1556.03</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>75604.648512</v>
       </c>
       <c r="B6" s="1">
-        <v>21.001291</v>
+        <v>21.001290999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>903.849000</v>
+        <v>903.84900000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-191.729000</v>
+        <v>-191.72900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>75615.050576</v>
+        <v>75615.050575999994</v>
       </c>
       <c r="G6" s="1">
-        <v>21.004181</v>
+        <v>21.004180999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>920.251000</v>
+        <v>920.25099999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-163.442000</v>
+        <v>-163.44200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>75625.505784</v>
+        <v>75625.505783999994</v>
       </c>
       <c r="L6" s="1">
         <v>21.007085</v>
       </c>
       <c r="M6" s="1">
-        <v>943.537000</v>
+        <v>943.53700000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.560000</v>
+        <v>-118.56</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>75636.051684</v>
+        <v>75636.051684000005</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.010014</v>
+        <v>21.010014000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>950.476000</v>
+        <v>950.476</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.618000</v>
+        <v>-103.61799999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>75646.712695</v>
+        <v>75646.712694999995</v>
       </c>
       <c r="V6" s="1">
-        <v>21.012976</v>
+        <v>21.012975999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>957.338000</v>
+        <v>957.33799999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.207500</v>
+        <v>-90.207499999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>75657.174314</v>
+        <v>75657.174314000004</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.015882</v>
+        <v>21.015882000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.936000</v>
+        <v>964.93600000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.618500</v>
+        <v>-80.618499999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>75667.377554</v>
+        <v>75667.377554000006</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.018716</v>
+        <v>21.018716000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>970.041000</v>
+        <v>970.04100000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.035000</v>
+        <v>-80.034999999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>75677.466638</v>
+        <v>75677.466637999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>21.021519</v>
+        <v>21.021519000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.140000</v>
+        <v>978.14</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.523500</v>
+        <v>-87.523499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>75687.741760</v>
+        <v>75687.741760000004</v>
       </c>
       <c r="AP6" s="1">
-        <v>21.024373</v>
+        <v>21.024373000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>987.317000</v>
+        <v>987.31700000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.182000</v>
+        <v>-102.182</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>75698.390901</v>
+        <v>75698.390901000006</v>
       </c>
       <c r="AU6" s="1">
         <v>21.027331</v>
       </c>
       <c r="AV6" s="1">
-        <v>998.641000</v>
+        <v>998.64099999999996</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.460000</v>
+        <v>-123.46</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>75709.473972</v>
+        <v>75709.473972000007</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.030409</v>
+        <v>21.030408999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1008.230000</v>
+        <v>1008.23</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.025000</v>
+        <v>-142.02500000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>75720.462350</v>
+        <v>75720.462350000002</v>
       </c>
       <c r="BE6" s="1">
         <v>21.033462</v>
       </c>
       <c r="BF6" s="1">
-        <v>1053.400000</v>
+        <v>1053.4000000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.047000</v>
+        <v>-226.047</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>75731.491382</v>
+        <v>75731.491381999993</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.036525</v>
+        <v>21.036525000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.770000</v>
+        <v>1132.77</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.546000</v>
+        <v>-360.54599999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>75742.702984</v>
+        <v>75742.702984000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.039640</v>
+        <v>21.039639999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1263.690000</v>
+        <v>1263.69</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-567.484000</v>
+        <v>-567.48400000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>75753.491433</v>
+        <v>75753.491433000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.042637</v>
+        <v>21.042636999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1410.340000</v>
+        <v>1410.34</v>
       </c>
       <c r="BV6" s="1">
-        <v>-788.025000</v>
+        <v>-788.02499999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>75764.632107</v>
+        <v>75764.632106999998</v>
       </c>
       <c r="BY6" s="1">
         <v>21.045731</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1569.800000</v>
+        <v>1569.8</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1017.750000</v>
+        <v>-1017.75</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>75775.492973</v>
@@ -1749,619 +2165,619 @@
         <v>21.048748</v>
       </c>
       <c r="CE6" s="1">
-        <v>1970.310000</v>
+        <v>1970.31</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1555.760000</v>
+        <v>-1555.76</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>75604.993693</v>
+        <v>75604.993692999997</v>
       </c>
       <c r="B7" s="1">
-        <v>21.001387</v>
+        <v>21.001387000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>903.913000</v>
+        <v>903.91300000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-191.906000</v>
+        <v>-191.90600000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>75615.397776</v>
+        <v>75615.397775999998</v>
       </c>
       <c r="G7" s="1">
-        <v>21.004277</v>
+        <v>21.004276999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>920.722000</v>
+        <v>920.72199999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-163.548000</v>
+        <v>-163.548</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>75625.951155</v>
+        <v>75625.951155000002</v>
       </c>
       <c r="L7" s="1">
         <v>21.007209</v>
       </c>
       <c r="M7" s="1">
-        <v>943.517000</v>
+        <v>943.51700000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.503000</v>
+        <v>-118.503</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>75636.484693</v>
+        <v>75636.484693000006</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.010135</v>
+        <v>21.010134999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>950.451000</v>
+        <v>950.45100000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.606000</v>
+        <v>-103.60599999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>75646.976070</v>
+        <v>75646.976070000004</v>
       </c>
       <c r="V7" s="1">
-        <v>21.013049</v>
+        <v>21.013048999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>957.348000</v>
+        <v>957.34799999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.021500</v>
+        <v>-90.021500000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>75657.454668</v>
+        <v>75657.454668000006</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.015960</v>
+        <v>21.01596</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.004000</v>
+        <v>965.00400000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.571200</v>
+        <v>-80.571200000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>75667.722271</v>
+        <v>75667.722271000006</v>
       </c>
       <c r="AF7" s="1">
         <v>21.018812</v>
       </c>
       <c r="AG7" s="1">
-        <v>970.059000</v>
+        <v>970.05899999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.006700</v>
+        <v>-80.006699999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>75677.815854</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.021616</v>
+        <v>21.021616000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.093000</v>
+        <v>978.09299999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.517900</v>
+        <v>-87.517899999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>75688.106319</v>
+        <v>75688.106318999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.024474</v>
+        <v>21.024474000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>987.310000</v>
+        <v>987.31</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.176000</v>
+        <v>-102.176</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>75699.123457</v>
+        <v>75699.123456999994</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.027534</v>
+        <v>21.027533999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>998.626000</v>
+        <v>998.62599999999998</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.454000</v>
+        <v>-123.45399999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>75709.834105</v>
+        <v>75709.834105000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.030509</v>
+        <v>21.030508999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1008.220000</v>
+        <v>1008.22</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.008000</v>
+        <v>-142.00800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>75720.820453</v>
+        <v>75720.820452999993</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.033561</v>
+        <v>21.033560999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1053.390000</v>
+        <v>1053.3900000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.065000</v>
+        <v>-226.065</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>75731.871814</v>
+        <v>75731.871813999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>21.036631</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.770000</v>
+        <v>1132.77</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.533000</v>
+        <v>-360.53300000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>75743.423672</v>
+        <v>75743.423672000004</v>
       </c>
       <c r="BO7" s="1">
-        <v>21.039840</v>
+        <v>21.039840000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1263.670000</v>
+        <v>1263.67</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-567.468000</v>
+        <v>-567.46799999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>75754.217577</v>
+        <v>75754.217577000003</v>
       </c>
       <c r="BT7" s="1">
         <v>21.042838</v>
       </c>
       <c r="BU7" s="1">
-        <v>1410.300000</v>
+        <v>1410.3</v>
       </c>
       <c r="BV7" s="1">
-        <v>-787.943000</v>
+        <v>-787.94299999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>75764.763515</v>
+        <v>75764.763514999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.045768</v>
+        <v>21.045767999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1569.740000</v>
+        <v>1569.74</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1017.680000</v>
+        <v>-1017.68</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>75776.047997</v>
+        <v>75776.047997000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.048902</v>
+        <v>21.048901999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1969.610000</v>
+        <v>1969.61</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1555.300000</v>
+        <v>-1555.3</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>75605.336429</v>
+        <v>75605.336429000003</v>
       </c>
       <c r="B8" s="1">
-        <v>21.001482</v>
+        <v>21.001481999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>903.700000</v>
+        <v>903.7</v>
       </c>
       <c r="D8" s="1">
-        <v>-191.906000</v>
+        <v>-191.90600000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>75615.820367</v>
+        <v>75615.820366999993</v>
       </c>
       <c r="G8" s="1">
-        <v>21.004395</v>
+        <v>21.004394999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>920.376000</v>
+        <v>920.37599999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-163.347000</v>
+        <v>-163.34700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>75626.231393</v>
+        <v>75626.231392999995</v>
       </c>
       <c r="L8" s="1">
-        <v>21.007286</v>
+        <v>21.007286000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>943.580000</v>
+        <v>943.58</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.375000</v>
+        <v>-118.375</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>75636.761461</v>
+        <v>75636.761461000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.010212</v>
+        <v>21.010211999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>950.470000</v>
+        <v>950.47</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.646000</v>
+        <v>-103.646</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>75647.318310</v>
+        <v>75647.318310000002</v>
       </c>
       <c r="V8" s="1">
         <v>21.013144</v>
       </c>
       <c r="W8" s="1">
-        <v>957.363000</v>
+        <v>957.36300000000006</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.104100</v>
+        <v>-90.104100000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>75657.804233</v>
+        <v>75657.804233000003</v>
       </c>
       <c r="AA8" s="1">
         <v>21.016057</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.967000</v>
+        <v>964.96699999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.571800</v>
+        <v>-80.571799999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>75668.064474</v>
+        <v>75668.064473999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.018907</v>
+        <v>21.018906999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>970.064000</v>
+        <v>970.06399999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.043000</v>
+        <v>-80.043000000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>75678.508734</v>
+        <v>75678.508734000003</v>
       </c>
       <c r="AK8" s="1">
         <v>21.021808</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.099000</v>
+        <v>978.09900000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.542900</v>
+        <v>-87.542900000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>75688.827039</v>
+        <v>75688.827038999996</v>
       </c>
       <c r="AP8" s="1">
-        <v>21.024674</v>
+        <v>21.024674000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>987.298000</v>
+        <v>987.298</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.171000</v>
+        <v>-102.17100000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>75699.517777</v>
+        <v>75699.517777000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>21.027644</v>
+        <v>21.027643999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>998.632000</v>
+        <v>998.63199999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.455000</v>
+        <v>-123.455</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>75710.190691</v>
+        <v>75710.190690999996</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.030609</v>
+        <v>21.030608999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1008.200000</v>
+        <v>1008.2</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.017000</v>
+        <v>-142.017</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>75721.181540</v>
+        <v>75721.181540000005</v>
       </c>
       <c r="BE8" s="1">
         <v>21.033662</v>
       </c>
       <c r="BF8" s="1">
-        <v>1053.400000</v>
+        <v>1053.4000000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.063000</v>
+        <v>-226.06299999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>75732.563733</v>
+        <v>75732.563733000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.036823</v>
+        <v>21.036822999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.730000</v>
+        <v>1132.73</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.513000</v>
+        <v>-360.51299999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>75743.937990</v>
+        <v>75743.937990000006</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.039983</v>
+        <v>21.039982999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1263.680000</v>
+        <v>1263.68</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-567.464000</v>
+        <v>-567.46400000000006</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>75754.336121</v>
       </c>
       <c r="BT8" s="1">
-        <v>21.042871</v>
+        <v>21.042871000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1410.360000</v>
+        <v>1410.36</v>
       </c>
       <c r="BV8" s="1">
-        <v>-787.854000</v>
+        <v>-787.85400000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>75765.184154</v>
+        <v>75765.184154000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>21.045884</v>
+        <v>21.045884000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1569.810000</v>
+        <v>1569.81</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1017.600000</v>
+        <v>-1017.6</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>75776.575244</v>
+        <v>75776.575244000007</v>
       </c>
       <c r="CD8" s="1">
         <v>21.049049</v>
       </c>
       <c r="CE8" s="1">
-        <v>1971.470000</v>
+        <v>1971.47</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1555.800000</v>
+        <v>-1555.8</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>75605.759020</v>
+        <v>75605.759019999998</v>
       </c>
       <c r="B9" s="1">
-        <v>21.001600</v>
+        <v>21.0016</v>
       </c>
       <c r="C9" s="1">
-        <v>903.764000</v>
+        <v>903.76400000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-191.646000</v>
+        <v>-191.64599999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>75616.093663</v>
+        <v>75616.093663000007</v>
       </c>
       <c r="G9" s="1">
-        <v>21.004470</v>
+        <v>21.004470000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>920.740000</v>
+        <v>920.74</v>
       </c>
       <c r="I9" s="1">
-        <v>-163.944000</v>
+        <v>-163.94399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>75626.578593</v>
+        <v>75626.578592999998</v>
       </c>
       <c r="L9" s="1">
-        <v>21.007383</v>
+        <v>21.007383000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>943.437000</v>
+        <v>943.43700000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.572000</v>
+        <v>-118.572</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>75637.111141</v>
+        <v>75637.111141000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.010309</v>
+        <v>21.010308999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>950.423000</v>
+        <v>950.423</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.651000</v>
+        <v>-103.651</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>75647.660055</v>
       </c>
       <c r="V9" s="1">
-        <v>21.013239</v>
+        <v>21.013238999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>957.382000</v>
+        <v>957.38199999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.164300</v>
+        <v>-90.164299999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>75658.155437</v>
+        <v>75658.155436999994</v>
       </c>
       <c r="AA9" s="1">
         <v>21.016154</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.943000</v>
+        <v>964.94299999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.535000</v>
+        <v>-80.534999999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>75668.752922</v>
@@ -2370,210 +2786,210 @@
         <v>21.019098</v>
       </c>
       <c r="AG9" s="1">
-        <v>970.077000</v>
+        <v>970.077</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.036100</v>
+        <v>-80.036100000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>75678.847996</v>
+        <v>75678.847995999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.021902</v>
+        <v>21.021902000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.114000</v>
+        <v>978.11400000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.548900</v>
+        <v>-87.548900000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>75689.186606</v>
+        <v>75689.186606000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.024774</v>
+        <v>21.024774000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>987.310000</v>
+        <v>987.31</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.166000</v>
+        <v>-102.166</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>75699.879856</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.027744</v>
+        <v>21.027743999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>998.626000</v>
+        <v>998.62599999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.464000</v>
+        <v>-123.464</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>75710.871233</v>
+        <v>75710.871232999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.030798</v>
+        <v>21.030798000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1008.210000</v>
+        <v>1008.21</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.005000</v>
+        <v>-142.005</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>75721.868533</v>
+        <v>75721.868533000001</v>
       </c>
       <c r="BE9" s="1">
         <v>21.033852</v>
       </c>
       <c r="BF9" s="1">
-        <v>1053.380000</v>
+        <v>1053.3800000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.061000</v>
+        <v>-226.06100000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>75732.993765</v>
+        <v>75732.993765000007</v>
       </c>
       <c r="BJ9" s="1">
-        <v>21.036943</v>
+        <v>21.036943000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.750000</v>
+        <v>1132.75</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.530000</v>
+        <v>-360.53</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>75744.351655</v>
+        <v>75744.351655000006</v>
       </c>
       <c r="BO9" s="1">
         <v>21.040098</v>
       </c>
       <c r="BP9" s="1">
-        <v>1263.690000</v>
+        <v>1263.69</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-567.429000</v>
+        <v>-567.42899999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>75754.773592</v>
+        <v>75754.773591999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>21.042993</v>
+        <v>21.042992999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1410.310000</v>
+        <v>1410.31</v>
       </c>
       <c r="BV9" s="1">
-        <v>-787.777000</v>
+        <v>-787.77700000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>75765.608201</v>
+        <v>75765.608200999995</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.046002</v>
+        <v>21.046002000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1569.720000</v>
+        <v>1569.72</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1017.580000</v>
+        <v>-1017.58</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>75777.095050</v>
+        <v>75777.095050000004</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.049193</v>
+        <v>21.049192999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1971.710000</v>
+        <v>1971.71</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1554.400000</v>
+        <v>-1554.4</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>75606.038765</v>
+        <v>75606.038765000005</v>
       </c>
       <c r="B10" s="1">
-        <v>21.001677</v>
+        <v>21.001677000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>903.699000</v>
+        <v>903.69899999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-191.851000</v>
+        <v>-191.851</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>75616.436894</v>
+        <v>75616.436893999999</v>
       </c>
       <c r="G10" s="1">
-        <v>21.004566</v>
+        <v>21.004566000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>920.103000</v>
+        <v>920.10299999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-163.876000</v>
+        <v>-163.876</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>75626.923313</v>
+        <v>75626.923313000007</v>
       </c>
       <c r="L10" s="1">
         <v>21.007479</v>
       </c>
       <c r="M10" s="1">
-        <v>943.634000</v>
+        <v>943.63400000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.350000</v>
+        <v>-118.35</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>75637.460324</v>
@@ -2582,2930 +2998,2930 @@
         <v>21.010406</v>
       </c>
       <c r="R10" s="1">
-        <v>950.397000</v>
+        <v>950.39700000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.613000</v>
+        <v>-103.613</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>75648.349989</v>
+        <v>75648.349988999995</v>
       </c>
       <c r="V10" s="1">
-        <v>21.013431</v>
+        <v>21.013431000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>957.422000</v>
+        <v>957.42200000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.199600</v>
+        <v>-90.199600000000004</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>75658.851319</v>
+        <v>75658.851318999994</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.016348</v>
+        <v>21.016348000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.860000</v>
+        <v>964.86</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.586800</v>
+        <v>-80.586799999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>75669.095193</v>
+        <v>75669.095193000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.019193</v>
+        <v>21.019193000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>970.078000</v>
+        <v>970.07799999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.084700</v>
+        <v>-80.084699999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>75679.206604</v>
+        <v>75679.206604000006</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.022002</v>
+        <v>21.022002000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.138000</v>
+        <v>978.13800000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.529300</v>
+        <v>-87.529300000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>75689.547198</v>
       </c>
       <c r="AP10" s="1">
-        <v>21.024874</v>
+        <v>21.024874000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>987.301000</v>
+        <v>987.30100000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.188000</v>
+        <v>-102.188</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>75700.565823</v>
+        <v>75700.565822999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.027935</v>
+        <v>21.027934999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>998.629000</v>
+        <v>998.62900000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.455000</v>
+        <v>-123.455</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>75711.269489</v>
+        <v>75711.269488999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>21.030908</v>
       </c>
       <c r="BA10" s="1">
-        <v>1008.210000</v>
+        <v>1008.21</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.025000</v>
+        <v>-142.02500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>75722.293571</v>
+        <v>75722.293571000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>21.033970</v>
+        <v>21.03397</v>
       </c>
       <c r="BF10" s="1">
-        <v>1053.400000</v>
+        <v>1053.4000000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.071000</v>
+        <v>-226.071</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>75733.371717</v>
+        <v>75733.371717000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>21.037048</v>
+        <v>21.037047999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.770000</v>
+        <v>1132.77</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.506000</v>
+        <v>-360.50599999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>75744.742038</v>
+        <v>75744.742037999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.040206</v>
+        <v>21.040206000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1263.750000</v>
+        <v>1263.75</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-567.488000</v>
+        <v>-567.48800000000006</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>75755.202631</v>
+        <v>75755.202630999993</v>
       </c>
       <c r="BT10" s="1">
-        <v>21.043112</v>
+        <v>21.043112000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1410.290000</v>
+        <v>1410.29</v>
       </c>
       <c r="BV10" s="1">
-        <v>-787.756000</v>
+        <v>-787.75599999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>75766.054607</v>
+        <v>75766.054606999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.046126</v>
+        <v>21.046126000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1569.660000</v>
+        <v>1569.66</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1017.530000</v>
+        <v>-1017.53</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>75777.612377</v>
+        <v>75777.612376999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.049337</v>
+        <v>21.049337000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1970.100000</v>
+        <v>1970.1</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1554.350000</v>
+        <v>-1554.35</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>75606.379055</v>
+        <v>75606.379054999998</v>
       </c>
       <c r="B11" s="1">
-        <v>21.001772</v>
+        <v>21.001771999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>903.915000</v>
+        <v>903.91499999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-191.773000</v>
+        <v>-191.773</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>75616.783598</v>
+        <v>75616.783597999995</v>
       </c>
       <c r="G11" s="1">
         <v>21.004662</v>
       </c>
       <c r="H11" s="1">
-        <v>920.498000</v>
+        <v>920.49800000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-163.824000</v>
+        <v>-163.82400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>75627.616719</v>
+        <v>75627.616718999998</v>
       </c>
       <c r="L11" s="1">
-        <v>21.007671</v>
+        <v>21.007670999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>943.437000</v>
+        <v>943.43700000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.509000</v>
+        <v>-118.509</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>75638.160178</v>
+        <v>75638.160178000006</v>
       </c>
       <c r="Q11" s="1">
-        <v>21.010600</v>
+        <v>21.0106</v>
       </c>
       <c r="R11" s="1">
-        <v>950.456000</v>
+        <v>950.45600000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.625000</v>
+        <v>-103.625</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>75648.691237</v>
+        <v>75648.691237000006</v>
       </c>
       <c r="V11" s="1">
-        <v>21.013525</v>
+        <v>21.013525000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>957.250000</v>
+        <v>957.25</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.999500</v>
+        <v>-89.999499999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>75659.201958</v>
+        <v>75659.201958000005</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.016445</v>
+        <v>21.016445000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.004000</v>
+        <v>965.00400000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.565800</v>
+        <v>-80.565799999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>75669.440872</v>
+        <v>75669.440872000006</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.019289</v>
+        <v>21.019289000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.048000</v>
+        <v>970.048</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.020600</v>
+        <v>-80.020600000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>75679.878219</v>
+        <v>75679.878219000006</v>
       </c>
       <c r="AK11" s="1">
         <v>21.022188</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.104000</v>
+        <v>978.10400000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.519600</v>
+        <v>-87.519599999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>75690.227213</v>
+        <v>75690.227213000006</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.025063</v>
+        <v>21.025062999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>987.321000</v>
+        <v>987.32100000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.182000</v>
+        <v>-102.182</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>75700.974526</v>
+        <v>75700.974526000005</v>
       </c>
       <c r="AU11" s="1">
-        <v>21.028048</v>
+        <v>21.028047999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>998.632000</v>
+        <v>998.63199999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.426000</v>
+        <v>-123.426</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>75711.653889</v>
+        <v>75711.653888999994</v>
       </c>
       <c r="AZ11" s="1">
         <v>21.031015</v>
       </c>
       <c r="BA11" s="1">
-        <v>1008.220000</v>
+        <v>1008.22</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.010000</v>
+        <v>-142.01</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>75722.657634</v>
+        <v>75722.657634000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.034072</v>
+        <v>21.034071999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1053.390000</v>
+        <v>1053.3900000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.061000</v>
+        <v>-226.06100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>75733.747188</v>
+        <v>75733.747187999994</v>
       </c>
       <c r="BJ11" s="1">
-        <v>21.037152</v>
+        <v>21.037151999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.770000</v>
+        <v>1132.77</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.551000</v>
+        <v>-360.55099999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>75745.171540</v>
+        <v>75745.171539999996</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.040325</v>
+        <v>21.040324999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1263.670000</v>
+        <v>1263.67</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-567.465000</v>
+        <v>-567.46500000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>75755.629192</v>
+        <v>75755.629191999993</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.043230</v>
+        <v>21.043230000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1410.280000</v>
+        <v>1410.28</v>
       </c>
       <c r="BV11" s="1">
-        <v>-787.717000</v>
+        <v>-787.71699999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>75766.488600</v>
+        <v>75766.488599999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.046247</v>
+        <v>21.046247000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1569.650000</v>
+        <v>1569.65</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1017.740000</v>
+        <v>-1017.74</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>75778.129209</v>
+        <v>75778.129209000006</v>
       </c>
       <c r="CD11" s="1">
-        <v>21.049480</v>
+        <v>21.049479999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1970.220000</v>
+        <v>1970.22</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1555.760000</v>
+        <v>-1555.76</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>75606.720795</v>
+        <v>75606.720795000001</v>
       </c>
       <c r="B12" s="1">
-        <v>21.001867</v>
+        <v>21.001867000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>903.819000</v>
+        <v>903.81899999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-191.864000</v>
+        <v>-191.864</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>75617.477005</v>
+        <v>75617.477004999993</v>
       </c>
       <c r="G12" s="1">
-        <v>21.004855</v>
+        <v>21.004854999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>920.633000</v>
+        <v>920.63300000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-163.514000</v>
+        <v>-163.51400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>75627.960944</v>
+        <v>75627.960944000006</v>
       </c>
       <c r="L12" s="1">
-        <v>21.007767</v>
+        <v>21.007767000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>943.498000</v>
+        <v>943.49800000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.474000</v>
+        <v>-118.474</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>75638.507378</v>
+        <v>75638.507377999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.010696</v>
+        <v>21.010695999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>950.512000</v>
+        <v>950.51199999999994</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.609000</v>
+        <v>-103.60899999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>75649.036486</v>
+        <v>75649.036485999997</v>
       </c>
       <c r="V12" s="1">
-        <v>21.013621</v>
+        <v>21.013621000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>957.294000</v>
+        <v>957.29399999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.012900</v>
+        <v>-90.012900000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>75659.860181</v>
+        <v>75659.860180999996</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.016628</v>
+        <v>21.016628000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.934000</v>
+        <v>964.93399999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.563900</v>
+        <v>-80.563900000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>75670.100056</v>
+        <v>75670.100055999996</v>
       </c>
       <c r="AF12" s="1">
         <v>21.019472</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.063000</v>
+        <v>970.06299999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.035300</v>
+        <v>-80.035300000000007</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>75680.254186</v>
+        <v>75680.254186000006</v>
       </c>
       <c r="AK12" s="1">
-        <v>21.022293</v>
+        <v>21.022293000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.110000</v>
+        <v>978.11</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.544100</v>
+        <v>-87.5441</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>75690.655260</v>
+        <v>75690.65526</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.025182</v>
+        <v>21.025182000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>987.287000</v>
+        <v>987.28700000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.198000</v>
+        <v>-102.19799999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>75701.336606</v>
+        <v>75701.336605999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.028149</v>
+        <v>21.028148999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>998.627000</v>
+        <v>998.62699999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.440000</v>
+        <v>-123.44</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>75712.014976</v>
+        <v>75712.014976000006</v>
       </c>
       <c r="AZ12" s="1">
         <v>21.031115</v>
       </c>
       <c r="BA12" s="1">
-        <v>1008.220000</v>
+        <v>1008.22</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.009000</v>
+        <v>-142.00899999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>75723.017736</v>
+        <v>75723.017735999994</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.034172</v>
+        <v>21.034172000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1053.380000</v>
+        <v>1053.3800000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.063000</v>
+        <v>-226.06299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>75734.172756</v>
       </c>
       <c r="BJ12" s="1">
-        <v>21.037270</v>
+        <v>21.037269999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.740000</v>
+        <v>1132.74</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.533000</v>
+        <v>-360.53300000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>75745.562885</v>
+        <v>75745.562885000007</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.040434</v>
+        <v>21.040434000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1263.680000</v>
+        <v>1263.68</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-567.467000</v>
+        <v>-567.46699999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>75756.046822</v>
+        <v>75756.046822000004</v>
       </c>
       <c r="BT12" s="1">
         <v>21.043346</v>
       </c>
       <c r="BU12" s="1">
-        <v>1410.210000</v>
+        <v>1410.21</v>
       </c>
       <c r="BV12" s="1">
-        <v>-787.598000</v>
+        <v>-787.59799999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>75766.908711</v>
+        <v>75766.908710999996</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.046364</v>
+        <v>21.046364000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1569.850000</v>
+        <v>1569.85</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1017.730000</v>
+        <v>-1017.73</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>75778.647565</v>
+        <v>75778.647565000007</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.049624</v>
+        <v>21.049624000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1971.550000</v>
+        <v>1971.55</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1555.170000</v>
+        <v>-1555.17</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>75607.403755</v>
+        <v>75607.403755000007</v>
       </c>
       <c r="B13" s="1">
-        <v>21.002057</v>
+        <v>21.002057000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>903.777000</v>
+        <v>903.77700000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-191.802000</v>
+        <v>-191.80199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>75617.821229</v>
+        <v>75617.821228999994</v>
       </c>
       <c r="G13" s="1">
-        <v>21.004950</v>
+        <v>21.004950000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>920.422000</v>
+        <v>920.42200000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-163.171000</v>
+        <v>-163.17099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>75628.309631</v>
+        <v>75628.309630999996</v>
       </c>
       <c r="L13" s="1">
-        <v>21.007864</v>
+        <v>21.007864000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>943.565000</v>
+        <v>943.56500000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.551000</v>
+        <v>-118.551</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>75638.856304</v>
+        <v>75638.856304000001</v>
       </c>
       <c r="Q13" s="1">
         <v>21.010793</v>
       </c>
       <c r="R13" s="1">
-        <v>950.443000</v>
+        <v>950.44299999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.657000</v>
+        <v>-103.657</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>75649.694180</v>
+        <v>75649.694180000006</v>
       </c>
       <c r="V13" s="1">
         <v>21.013804</v>
       </c>
       <c r="W13" s="1">
-        <v>957.096000</v>
+        <v>957.096</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.075500</v>
+        <v>-90.075500000000005</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>75660.248518</v>
+        <v>75660.248517999993</v>
       </c>
       <c r="AA13" s="1">
-        <v>21.016736</v>
+        <v>21.016736000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.895000</v>
+        <v>964.89499999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.607700</v>
+        <v>-80.607699999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>75670.476023</v>
+        <v>75670.476022999996</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.019577</v>
+        <v>21.019577000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>970.088000</v>
+        <v>970.08799999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.013400</v>
+        <v>-80.013400000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>75680.602658</v>
+        <v>75680.602658000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.022390</v>
+        <v>21.022390000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.157000</v>
+        <v>978.15700000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.509500</v>
+        <v>-87.509500000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>75691.016348</v>
+        <v>75691.016348000005</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.025282</v>
+        <v>21.025282000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>987.321000</v>
+        <v>987.32100000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.179000</v>
+        <v>-102.179</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>75701.704670</v>
+        <v>75701.704670000006</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.028251</v>
+        <v>21.028251000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>998.644000</v>
+        <v>998.64400000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.451000</v>
+        <v>-123.45099999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>75712.441040</v>
+        <v>75712.441040000005</v>
       </c>
       <c r="AZ13" s="1">
-        <v>21.031234</v>
+        <v>21.031234000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1008.220000</v>
+        <v>1008.22</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.004000</v>
+        <v>-142.00399999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>75723.444786</v>
+        <v>75723.444785999993</v>
       </c>
       <c r="BE13" s="1">
-        <v>21.034290</v>
+        <v>21.034289999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1053.380000</v>
+        <v>1053.3800000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.056000</v>
+        <v>-226.05600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>75734.523427</v>
+        <v>75734.523426999993</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.037368</v>
+        <v>21.037368000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.720000</v>
+        <v>1132.72</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.520000</v>
+        <v>-360.52</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>75745.983491</v>
+        <v>75745.983491000006</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.040551</v>
+        <v>21.040551000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1263.650000</v>
+        <v>1263.6500000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-567.471000</v>
+        <v>-567.471</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>75756.471398</v>
+        <v>75756.471397999994</v>
       </c>
       <c r="BT13" s="1">
         <v>21.043464</v>
       </c>
       <c r="BU13" s="1">
-        <v>1410.060000</v>
+        <v>1410.06</v>
       </c>
       <c r="BV13" s="1">
-        <v>-787.553000</v>
+        <v>-787.553</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>75767.330311</v>
+        <v>75767.330310999998</v>
       </c>
       <c r="BY13" s="1">
         <v>21.046481</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1569.800000</v>
+        <v>1569.8</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1017.610000</v>
+        <v>-1017.61</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>75779.162871</v>
+        <v>75779.162870999993</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.049767</v>
+        <v>21.049766999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1971.490000</v>
+        <v>1971.49</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1555.790000</v>
+        <v>-1555.79</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>75607.751450</v>
+        <v>75607.751449999996</v>
       </c>
       <c r="B14" s="1">
         <v>21.002153</v>
       </c>
       <c r="C14" s="1">
-        <v>903.782000</v>
+        <v>903.78200000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-191.839000</v>
+        <v>-191.839</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>75618.164460</v>
+        <v>75618.16446</v>
       </c>
       <c r="G14" s="1">
         <v>21.005046</v>
       </c>
       <c r="H14" s="1">
-        <v>920.661000</v>
+        <v>920.66099999999994</v>
       </c>
       <c r="I14" s="1">
-        <v>-163.438000</v>
+        <v>-163.43799999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>75628.965839</v>
+        <v>75628.965838999997</v>
       </c>
       <c r="L14" s="1">
         <v>21.008046</v>
       </c>
       <c r="M14" s="1">
-        <v>943.347000</v>
+        <v>943.34699999999998</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.519000</v>
+        <v>-118.51900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>75639.521696</v>
+        <v>75639.521695999996</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.010978</v>
+        <v>21.010978000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>950.431000</v>
+        <v>950.43100000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.682000</v>
+        <v>-103.682</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>75650.073618</v>
+        <v>75650.073617999995</v>
       </c>
       <c r="V14" s="1">
-        <v>21.013909</v>
+        <v>21.013909000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>957.337000</v>
+        <v>957.33699999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.167800</v>
+        <v>-90.1678</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>75660.596251</v>
+        <v>75660.596250999995</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.016832</v>
+        <v>21.016832000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.960000</v>
+        <v>964.96</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.596100</v>
+        <v>-80.596100000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>75670.825207</v>
+        <v>75670.825207000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.019674</v>
+        <v>21.019673999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>970.008000</v>
+        <v>970.00800000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.059400</v>
+        <v>-80.059399999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>75680.951040</v>
+        <v>75680.95104</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.022486</v>
+        <v>21.022486000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.117000</v>
+        <v>978.11699999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.493000</v>
+        <v>-87.492999999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>75691.374480</v>
+        <v>75691.374479999999</v>
       </c>
       <c r="AP14" s="1">
         <v>21.025382</v>
       </c>
       <c r="AQ14" s="1">
-        <v>987.313000</v>
+        <v>987.31299999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.173000</v>
+        <v>-102.173</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>75702.127229</v>
+        <v>75702.127229000005</v>
       </c>
       <c r="AU14" s="1">
-        <v>21.028369</v>
+        <v>21.028369000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>998.631000</v>
+        <v>998.63099999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.462000</v>
+        <v>-123.462</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>75712.727231</v>
+        <v>75712.727230999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.031313</v>
+        <v>21.031313000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1008.200000</v>
+        <v>1008.2</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.006000</v>
+        <v>-142.006</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>75723.738416</v>
+        <v>75723.738415999993</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.034372</v>
+        <v>21.034372000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1053.360000</v>
+        <v>1053.3599999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.064000</v>
+        <v>-226.06399999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>75734.898402</v>
+        <v>75734.898402000006</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.037472</v>
+        <v>21.037472000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.770000</v>
+        <v>1132.77</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.514000</v>
+        <v>-360.51400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>75746.380045</v>
+        <v>75746.380044999998</v>
       </c>
       <c r="BO14" s="1">
         <v>21.040661</v>
       </c>
       <c r="BP14" s="1">
-        <v>1263.690000</v>
+        <v>1263.69</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-567.465000</v>
+        <v>-567.46500000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>75756.883574</v>
+        <v>75756.883574000007</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.043579</v>
+        <v>21.043579000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1410.040000</v>
+        <v>1410.04</v>
       </c>
       <c r="BV14" s="1">
-        <v>-787.584000</v>
+        <v>-787.58399999999995</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>75767.755416</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.046599</v>
+        <v>21.046599000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1569.910000</v>
+        <v>1569.91</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1017.600000</v>
+        <v>-1017.6</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>75779.717399</v>
+        <v>75779.717399000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>21.049921</v>
+        <v>21.049921000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1970.410000</v>
+        <v>1970.41</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1555.640000</v>
+        <v>-1555.64</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>75608.086745</v>
+        <v>75608.086744999993</v>
       </c>
       <c r="B15" s="1">
         <v>21.002246</v>
       </c>
       <c r="C15" s="1">
-        <v>903.727000</v>
+        <v>903.72699999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-191.775000</v>
+        <v>-191.77500000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>75618.834555</v>
+        <v>75618.834554999994</v>
       </c>
       <c r="G15" s="1">
-        <v>21.005232</v>
+        <v>21.005231999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>921.045000</v>
+        <v>921.04499999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-163.170000</v>
+        <v>-163.16999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>75629.346271</v>
+        <v>75629.346271000002</v>
       </c>
       <c r="L15" s="1">
-        <v>21.008152</v>
+        <v>21.008151999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>943.531000</v>
+        <v>943.53099999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.495000</v>
+        <v>-118.495</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>75639.899151</v>
+        <v>75639.899151000005</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.011083</v>
+        <v>21.011082999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>950.422000</v>
+        <v>950.42200000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.654000</v>
+        <v>-103.654</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>75650.420786</v>
+        <v>75650.420786000002</v>
       </c>
       <c r="V15" s="1">
-        <v>21.014006</v>
+        <v>21.014005999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>957.310000</v>
+        <v>957.31</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.146900</v>
+        <v>-90.146900000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>75660.945427</v>
+        <v>75660.945426999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>21.016929</v>
+        <v>21.016929000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.891000</v>
+        <v>964.89099999999996</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.684400</v>
+        <v>-80.684399999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>75671.167446</v>
+        <v>75671.167446000007</v>
       </c>
       <c r="AF15" s="1">
         <v>21.019769</v>
       </c>
       <c r="AG15" s="1">
-        <v>970.037000</v>
+        <v>970.03700000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.997700</v>
+        <v>-79.997699999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>75681.368200</v>
+        <v>75681.368199999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>21.022602</v>
+        <v>21.022601999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.114000</v>
+        <v>978.11400000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.528500</v>
+        <v>-87.528499999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>75691.848635</v>
+        <v>75691.848635000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.025514</v>
+        <v>21.025514000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>987.314000</v>
+        <v>987.31399999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.185000</v>
+        <v>-102.185</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>75702.434071</v>
+        <v>75702.434070999996</v>
       </c>
       <c r="AU15" s="1">
         <v>21.028454</v>
       </c>
       <c r="AV15" s="1">
-        <v>998.632000</v>
+        <v>998.63199999999995</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.446000</v>
+        <v>-123.446</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>75713.089807</v>
+        <v>75713.089806999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.031414</v>
+        <v>21.031414000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1008.210000</v>
+        <v>1008.21</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.016000</v>
+        <v>-142.01599999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>75724.102480</v>
+        <v>75724.102480000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.034473</v>
+        <v>21.034472999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1053.390000</v>
+        <v>1053.3900000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.060000</v>
+        <v>-226.06</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>75735.276851</v>
+        <v>75735.276851000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>21.037577</v>
+        <v>21.037576999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.760000</v>
+        <v>1132.76</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.508000</v>
+        <v>-360.50799999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>75746.811810</v>
+        <v>75746.811809999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.040781</v>
+        <v>21.040780999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1263.660000</v>
+        <v>1263.6600000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-567.456000</v>
+        <v>-567.45600000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>75757.310630</v>
+        <v>75757.310630000007</v>
       </c>
       <c r="BT15" s="1">
-        <v>21.043697</v>
+        <v>21.043697000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1410.000000</v>
+        <v>1410</v>
       </c>
       <c r="BV15" s="1">
-        <v>-787.625000</v>
+        <v>-787.625</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>75768.173516</v>
+        <v>75768.173515999995</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.046715</v>
+        <v>21.046714999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1569.730000</v>
+        <v>1569.73</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1017.540000</v>
+        <v>-1017.54</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>75780.248615</v>
+        <v>75780.248615000004</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.050069</v>
+        <v>21.050069000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1971.700000</v>
+        <v>1971.7</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1555.040000</v>
+        <v>-1555.04</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>75608.798010</v>
+        <v>75608.798009999999</v>
       </c>
       <c r="B16" s="1">
-        <v>21.002444</v>
+        <v>21.002444000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>903.695000</v>
+        <v>903.69500000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-191.933000</v>
+        <v>-191.93299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>75619.200107</v>
+        <v>75619.200106999997</v>
       </c>
       <c r="G16" s="1">
         <v>21.005333</v>
       </c>
       <c r="H16" s="1">
-        <v>920.856000</v>
+        <v>920.85599999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-163.707000</v>
+        <v>-163.70699999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>75629.690989</v>
+        <v>75629.690988999995</v>
       </c>
       <c r="L16" s="1">
-        <v>21.008247</v>
+        <v>21.008247000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>943.467000</v>
+        <v>943.46699999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.514000</v>
+        <v>-118.514</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>75640.249823</v>
+        <v>75640.249823000006</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.011181</v>
+        <v>21.011181000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>950.444000</v>
+        <v>950.44399999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.601000</v>
+        <v>-103.601</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>75650.765505</v>
+        <v>75650.765505000003</v>
       </c>
       <c r="V16" s="1">
-        <v>21.014102</v>
+        <v>21.014102000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>957.353000</v>
+        <v>957.35299999999995</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.089100</v>
+        <v>-90.089100000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>75661.366499</v>
+        <v>75661.366498999996</v>
       </c>
       <c r="AA16" s="1">
-        <v>21.017046</v>
+        <v>21.017046000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.027000</v>
+        <v>965.02700000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.582400</v>
+        <v>-80.582400000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>75671.585077</v>
+        <v>75671.585076999996</v>
       </c>
       <c r="AF16" s="1">
-        <v>21.019885</v>
+        <v>21.019884999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>970.089000</v>
+        <v>970.08900000000006</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.050900</v>
+        <v>-80.050899999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>75681.661801</v>
+        <v>75681.661800999995</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.022684</v>
+        <v>21.022684000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.142000</v>
+        <v>978.14200000000005</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.529600</v>
+        <v>-87.529600000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>75692.094154</v>
+        <v>75692.094154000006</v>
       </c>
       <c r="AP16" s="1">
         <v>21.025582</v>
       </c>
       <c r="AQ16" s="1">
-        <v>987.307000</v>
+        <v>987.30700000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.172000</v>
+        <v>-102.172</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>75702.798813</v>
+        <v>75702.798813000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>21.028555</v>
+        <v>21.028555000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>998.640000</v>
+        <v>998.64</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.452000</v>
+        <v>-123.452</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>75713.444942</v>
+        <v>75713.444942000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.031512</v>
+        <v>21.031511999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1008.210000</v>
+        <v>1008.21</v>
       </c>
       <c r="BB16" s="1">
-        <v>-141.998000</v>
+        <v>-141.99799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>75724.461088</v>
+        <v>75724.461087999996</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.034573</v>
+        <v>21.034573000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1053.350000</v>
+        <v>1053.3499999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.051000</v>
+        <v>-226.05099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>75736.051105</v>
+        <v>75736.051105000006</v>
       </c>
       <c r="BJ16" s="1">
         <v>21.037792</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.770000</v>
+        <v>1132.77</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.534000</v>
+        <v>-360.53399999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>75747.198690</v>
+        <v>75747.198690000005</v>
       </c>
       <c r="BO16" s="1">
         <v>21.040889</v>
       </c>
       <c r="BP16" s="1">
-        <v>1263.700000</v>
+        <v>1263.7</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-567.479000</v>
+        <v>-567.47900000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>75757.742147</v>
+        <v>75757.742146999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>21.043817</v>
+        <v>21.043817000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1409.950000</v>
+        <v>1409.95</v>
       </c>
       <c r="BV16" s="1">
-        <v>-787.512000</v>
+        <v>-787.51199999999994</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>75768.618421</v>
+        <v>75768.618421000006</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.046838</v>
+        <v>21.046838000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1569.650000</v>
+        <v>1569.65</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1017.550000</v>
+        <v>-1017.55</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>75781.075445</v>
+        <v>75781.075444999995</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.050299</v>
+        <v>21.050298999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1970.960000</v>
+        <v>1970.96</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1553.700000</v>
+        <v>-1553.7</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>75609.116440</v>
+        <v>75609.116439999998</v>
       </c>
       <c r="B17" s="1">
-        <v>21.002532</v>
+        <v>21.002531999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>903.786000</v>
+        <v>903.78599999999994</v>
       </c>
       <c r="D17" s="1">
-        <v>-191.855000</v>
+        <v>-191.85499999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>75619.547802</v>
+        <v>75619.547802000001</v>
       </c>
       <c r="G17" s="1">
-        <v>21.005430</v>
+        <v>21.00543</v>
       </c>
       <c r="H17" s="1">
-        <v>920.077000</v>
+        <v>920.077</v>
       </c>
       <c r="I17" s="1">
-        <v>-163.544000</v>
+        <v>-163.54400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>75630.038188</v>
+        <v>75630.038188000006</v>
       </c>
       <c r="L17" s="1">
-        <v>21.008344</v>
+        <v>21.008344000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>943.427000</v>
+        <v>943.42700000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.570000</v>
+        <v>-118.57</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>75640.599998</v>
+        <v>75640.599998000005</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.011278</v>
+        <v>21.011278000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>950.445000</v>
+        <v>950.44500000000005</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.634000</v>
+        <v>-103.634</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>75651.200994</v>
+        <v>75651.200993999999</v>
       </c>
       <c r="V17" s="1">
         <v>21.014222</v>
       </c>
       <c r="W17" s="1">
-        <v>957.360000</v>
+        <v>957.36</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.125200</v>
+        <v>-90.125200000000007</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>75661.657155</v>
+        <v>75661.657154999994</v>
       </c>
       <c r="AA17" s="1">
-        <v>21.017127</v>
+        <v>21.017126999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.036000</v>
+        <v>965.03599999999994</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.586900</v>
+        <v>-80.5869</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>75671.865813</v>
+        <v>75671.865812999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.019963</v>
+        <v>21.019963000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>970.075000</v>
+        <v>970.07500000000005</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.030400</v>
+        <v>-80.0304</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>75682.006552</v>
+        <v>75682.006552000006</v>
       </c>
       <c r="AK17" s="1">
-        <v>21.022780</v>
+        <v>21.022780000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.123000</v>
+        <v>978.12300000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.521200</v>
+        <v>-87.521199999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>75692.454748</v>
+        <v>75692.454748000004</v>
       </c>
       <c r="AP17" s="1">
         <v>21.025682</v>
       </c>
       <c r="AQ17" s="1">
-        <v>987.288000</v>
+        <v>987.28800000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.193000</v>
+        <v>-102.193</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>75703.162380</v>
+        <v>75703.162379999994</v>
       </c>
       <c r="AU17" s="1">
-        <v>21.028656</v>
+        <v>21.028656000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>998.631000</v>
+        <v>998.63099999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.459000</v>
+        <v>-123.459</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>75714.170126</v>
+        <v>75714.170125999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.031714</v>
+        <v>21.031714000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1008.220000</v>
+        <v>1008.22</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.010000</v>
+        <v>-142.01</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>75725.181280</v>
+        <v>75725.181280000004</v>
       </c>
       <c r="BE17" s="1">
-        <v>21.034773</v>
+        <v>21.034773000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1053.380000</v>
+        <v>1053.3800000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.060000</v>
+        <v>-226.06</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>75736.425584</v>
+        <v>75736.425583999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>21.037896</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.750000</v>
+        <v>1132.75</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.537000</v>
+        <v>-360.53699999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>75747.616321</v>
+        <v>75747.616320999994</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.041005</v>
+        <v>21.041004999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1263.660000</v>
+        <v>1263.6600000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-567.454000</v>
+        <v>-567.45399999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>75758.163747</v>
+        <v>75758.163746999999</v>
       </c>
       <c r="BT17" s="1">
         <v>21.043934</v>
       </c>
       <c r="BU17" s="1">
-        <v>1409.870000</v>
+        <v>1409.87</v>
       </c>
       <c r="BV17" s="1">
-        <v>-787.654000</v>
+        <v>-787.654</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>75769.351508</v>
+        <v>75769.351508000007</v>
       </c>
       <c r="BY17" s="1">
-        <v>21.047042</v>
+        <v>21.047042000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1569.570000</v>
+        <v>1569.57</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1017.640000</v>
+        <v>-1017.64</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>75781.284757</v>
+        <v>75781.284757000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.050357</v>
+        <v>21.050357000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1969.590000</v>
+        <v>1969.59</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1554.850000</v>
+        <v>-1554.85</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>75609.460665</v>
+        <v>75609.460665000006</v>
       </c>
       <c r="B18" s="1">
-        <v>21.002628</v>
+        <v>21.002628000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>903.939000</v>
+        <v>903.93899999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-191.805000</v>
+        <v>-191.80500000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>75619.892027</v>
+        <v>75619.892026999994</v>
       </c>
       <c r="G18" s="1">
         <v>21.005526</v>
       </c>
       <c r="H18" s="1">
-        <v>920.435000</v>
+        <v>920.43499999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>-163.546000</v>
+        <v>-163.54599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>75630.466236</v>
+        <v>75630.466235999993</v>
       </c>
       <c r="L18" s="1">
-        <v>21.008463</v>
+        <v>21.008462999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>943.570000</v>
+        <v>943.57</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.453000</v>
+        <v>-118.453</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>75641.047390</v>
+        <v>75641.047390000007</v>
       </c>
       <c r="Q18" s="1">
         <v>21.011402</v>
       </c>
       <c r="R18" s="1">
-        <v>950.454000</v>
+        <v>950.45399999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.643000</v>
+        <v>-103.643</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>75651.459441</v>
+        <v>75651.459440999999</v>
       </c>
       <c r="V18" s="1">
         <v>21.014294</v>
       </c>
       <c r="W18" s="1">
-        <v>957.355000</v>
+        <v>957.35500000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.056000</v>
+        <v>-90.055999999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>75662.004224</v>
+        <v>75662.004224000004</v>
       </c>
       <c r="AA18" s="1">
-        <v>21.017223</v>
+        <v>21.017223000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.930000</v>
+        <v>964.93</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.621400</v>
+        <v>-80.621399999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>75672.208054</v>
+        <v>75672.208054000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>21.020058</v>
+        <v>21.020057999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>970.127000</v>
+        <v>970.12699999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.047200</v>
+        <v>-80.047200000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>75682.356728</v>
+        <v>75682.356727999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.022877</v>
+        <v>21.022877000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.125000</v>
+        <v>978.125</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.520500</v>
+        <v>-87.520499999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>75693.174473</v>
+        <v>75693.174473000006</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.025882</v>
+        <v>21.025881999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>987.311000</v>
+        <v>987.31100000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.199000</v>
+        <v>-102.199</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>75703.893979</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.028859</v>
+        <v>21.028859000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>998.645000</v>
+        <v>998.64499999999998</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.455000</v>
+        <v>-123.455</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>75714.549037</v>
+        <v>75714.549037000004</v>
       </c>
       <c r="AZ18" s="1">
-        <v>21.031819</v>
+        <v>21.031818999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1008.210000</v>
+        <v>1008.21</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.011000</v>
+        <v>-142.011</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>75725.544846</v>
+        <v>75725.544846000004</v>
       </c>
       <c r="BE18" s="1">
-        <v>21.034874</v>
+        <v>21.034873999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1053.370000</v>
+        <v>1053.3699999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.070000</v>
+        <v>-226.07</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>75736.802544</v>
+        <v>75736.802544000006</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.038001</v>
+        <v>21.038001000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.740000</v>
+        <v>1132.74</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.532000</v>
+        <v>-360.53199999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>75748.326592</v>
+        <v>75748.326591999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>21.041202</v>
+        <v>21.041201999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1263.700000</v>
+        <v>1263.7</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-567.451000</v>
+        <v>-567.45100000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>75758.614115</v>
+        <v>75758.614115000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.044059</v>
+        <v>21.044059000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1409.690000</v>
+        <v>1409.69</v>
       </c>
       <c r="BV18" s="1">
-        <v>-787.582000</v>
+        <v>-787.58199999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>75769.465101</v>
+        <v>75769.465100999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.047074</v>
+        <v>21.047073999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1569.600000</v>
+        <v>1569.6</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1017.610000</v>
+        <v>-1017.61</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>75781.802580</v>
+        <v>75781.802580000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>21.050501</v>
+        <v>21.050501000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1969.750000</v>
+        <v>1969.75</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1554.770000</v>
+        <v>-1554.77</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>75609.888216</v>
+        <v>75609.888216000007</v>
       </c>
       <c r="B19" s="1">
-        <v>21.002747</v>
+        <v>21.002746999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>903.826000</v>
+        <v>903.82600000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-191.815000</v>
+        <v>-191.815</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>75620.315114</v>
+        <v>75620.315113999997</v>
       </c>
       <c r="G19" s="1">
-        <v>21.005643</v>
+        <v>21.005642999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>920.752000</v>
+        <v>920.75199999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-163.752000</v>
+        <v>-163.75200000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>75630.747009</v>
+        <v>75630.747008999999</v>
       </c>
       <c r="L19" s="1">
-        <v>21.008541</v>
+        <v>21.008541000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>943.608000</v>
+        <v>943.60799999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.419000</v>
+        <v>-118.419</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>75641.310766</v>
+        <v>75641.310765999995</v>
       </c>
       <c r="Q19" s="1">
-        <v>21.011475</v>
+        <v>21.011475000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>950.470000</v>
+        <v>950.47</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.642000</v>
+        <v>-103.642</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>75651.804129</v>
+        <v>75651.804128999996</v>
       </c>
       <c r="V19" s="1">
-        <v>21.014390</v>
+        <v>21.014389999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>957.316000</v>
+        <v>957.31600000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.129200</v>
+        <v>-90.129199999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>75662.356018</v>
+        <v>75662.356018000006</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.017321</v>
+        <v>21.017320999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.969000</v>
+        <v>964.96900000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.586000</v>
+        <v>-80.585999999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>75672.554260</v>
+        <v>75672.554260000004</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.020154</v>
+        <v>21.020154000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>970.099000</v>
+        <v>970.09900000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.051600</v>
+        <v>-80.051599999999993</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>75683.052389</v>
+        <v>75683.052389000004</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.023070</v>
+        <v>21.023070000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.122000</v>
+        <v>978.12199999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.513000</v>
+        <v>-87.513000000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>75693.538507</v>
+        <v>75693.538507000005</v>
       </c>
       <c r="AP19" s="1">
         <v>21.025983</v>
       </c>
       <c r="AQ19" s="1">
-        <v>987.316000</v>
+        <v>987.31600000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.183000</v>
+        <v>-102.18300000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>75704.274443</v>
+        <v>75704.274443000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.028965</v>
+        <v>21.028964999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>998.641000</v>
+        <v>998.64099999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.468000</v>
+        <v>-123.468</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>75714.927980</v>
+        <v>75714.927979999993</v>
       </c>
       <c r="AZ19" s="1">
         <v>21.031924</v>
       </c>
       <c r="BA19" s="1">
-        <v>1008.220000</v>
+        <v>1008.22</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.006000</v>
+        <v>-142.006</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>75726.230845</v>
+        <v>75726.230844999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.035064</v>
+        <v>21.035063999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1053.390000</v>
+        <v>1053.3900000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.063000</v>
+        <v>-226.06299999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>75737.486528</v>
+        <v>75737.486527999994</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.038191</v>
+        <v>21.038191000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.760000</v>
+        <v>1132.76</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.540000</v>
+        <v>-360.54</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>75748.451584</v>
+        <v>75748.451583999995</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.041237</v>
+        <v>21.041236999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1263.650000</v>
+        <v>1263.6500000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-567.454000</v>
+        <v>-567.45399999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>75759.013890</v>
+        <v>75759.013890000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.044171</v>
+        <v>21.044170999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1409.670000</v>
+        <v>1409.67</v>
       </c>
       <c r="BV19" s="1">
-        <v>-787.598000</v>
+        <v>-787.59799999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>75769.912980</v>
+        <v>75769.912979999994</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.047198</v>
+        <v>21.047198000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1569.810000</v>
+        <v>1569.81</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1017.590000</v>
+        <v>-1017.59</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>75782.353139</v>
+        <v>75782.353138999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.050654</v>
+        <v>21.050654000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1970.780000</v>
+        <v>1970.78</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1553.800000</v>
+        <v>-1553.8</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>75610.158535</v>
+        <v>75610.158534999995</v>
       </c>
       <c r="B20" s="1">
-        <v>21.002822</v>
+        <v>21.002821999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>903.832000</v>
+        <v>903.83199999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-191.755000</v>
+        <v>-191.755</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>75620.580970</v>
+        <v>75620.580969999995</v>
       </c>
       <c r="G20" s="1">
-        <v>21.005717</v>
+        <v>21.005717000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>920.889000</v>
+        <v>920.88900000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-163.669000</v>
+        <v>-163.66900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>75631.096155</v>
+        <v>75631.096155000007</v>
       </c>
       <c r="L20" s="1">
-        <v>21.008638</v>
+        <v>21.008638000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>943.429000</v>
+        <v>943.42899999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.378000</v>
+        <v>-118.378</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>75641.656027</v>
+        <v>75641.656027000005</v>
       </c>
       <c r="Q20" s="1">
         <v>21.011571</v>
       </c>
       <c r="R20" s="1">
-        <v>950.409000</v>
+        <v>950.40899999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.626000</v>
+        <v>-103.626</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>75652.146368</v>
+        <v>75652.146368000002</v>
       </c>
       <c r="V20" s="1">
-        <v>21.014485</v>
+        <v>21.014485000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>957.256000</v>
+        <v>957.25599999999997</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.027100</v>
+        <v>-90.027100000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>75663.050418</v>
+        <v>75663.050417999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.017514</v>
+        <v>21.017513999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.954000</v>
+        <v>964.95399999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.624100</v>
+        <v>-80.624099999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>75673.238739</v>
+        <v>75673.238738999993</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.020344</v>
+        <v>21.020344000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>970.074000</v>
+        <v>970.07399999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.047600</v>
+        <v>-80.047600000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>75683.400278</v>
+        <v>75683.400278000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.023167</v>
+        <v>21.023167000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.121000</v>
+        <v>978.12099999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.529600</v>
+        <v>-87.529600000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>75693.895656</v>
+        <v>75693.895655999993</v>
       </c>
       <c r="AP20" s="1">
-        <v>21.026082</v>
+        <v>21.026081999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>987.291000</v>
+        <v>987.29100000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.181000</v>
+        <v>-102.181</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>75704.640458</v>
+        <v>75704.640457999994</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.029067</v>
+        <v>21.029067000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>998.643000</v>
+        <v>998.64300000000003</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.462000</v>
+        <v>-123.462</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>75715.597097</v>
+        <v>75715.597097000005</v>
       </c>
       <c r="AZ20" s="1">
-        <v>21.032110</v>
+        <v>21.032109999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1008.190000</v>
+        <v>1008.19</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.008000</v>
+        <v>-142.00800000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>75726.657373</v>
+        <v>75726.657372999995</v>
       </c>
       <c r="BE20" s="1">
         <v>21.035183</v>
       </c>
       <c r="BF20" s="1">
-        <v>1053.390000</v>
+        <v>1053.3900000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.068000</v>
+        <v>-226.06800000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>75737.956767</v>
+        <v>75737.956766999996</v>
       </c>
       <c r="BJ20" s="1">
         <v>21.038321</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.760000</v>
+        <v>1132.76</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.526000</v>
+        <v>-360.52600000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>75748.858304</v>
+        <v>75748.858303999994</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.041350</v>
+        <v>21.041350000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1263.680000</v>
+        <v>1263.68</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-567.483000</v>
+        <v>-567.48299999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>75759.425602</v>
+        <v>75759.425602000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>21.044285</v>
+        <v>21.044284999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1409.660000</v>
+        <v>1409.66</v>
       </c>
       <c r="BV20" s="1">
-        <v>-787.716000</v>
+        <v>-787.71600000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>75770.346996</v>
+        <v>75770.346995999993</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.047319</v>
+        <v>21.047319000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1569.770000</v>
+        <v>1569.77</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1017.650000</v>
+        <v>-1017.65</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>75782.881380</v>
+        <v>75782.881380000006</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.050800</v>
+        <v>21.050799999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1969.740000</v>
+        <v>1969.74</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1555.060000</v>
+        <v>-1555.06</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>75610.501798</v>
+        <v>75610.501797999998</v>
       </c>
       <c r="B21" s="1">
         <v>21.002917</v>
       </c>
       <c r="C21" s="1">
-        <v>903.861000</v>
+        <v>903.86099999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-191.851000</v>
+        <v>-191.851</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>75620.926186</v>
+        <v>75620.926185999997</v>
       </c>
       <c r="G21" s="1">
         <v>21.005813</v>
       </c>
       <c r="H21" s="1">
-        <v>920.787000</v>
+        <v>920.78700000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-163.516000</v>
+        <v>-163.51599999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>75631.437402</v>
+        <v>75631.437401999996</v>
       </c>
       <c r="L21" s="1">
-        <v>21.008733</v>
+        <v>21.008732999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>943.462000</v>
+        <v>943.46199999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.455000</v>
+        <v>-118.455</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>75642.343472</v>
+        <v>75642.343471999993</v>
       </c>
       <c r="Q21" s="1">
-        <v>21.011762</v>
+        <v>21.011762000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>950.427000</v>
+        <v>950.42700000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.638000</v>
+        <v>-103.63800000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>75652.834814</v>
+        <v>75652.834814000002</v>
       </c>
       <c r="V21" s="1">
-        <v>21.014676</v>
+        <v>21.014676000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>957.190000</v>
+        <v>957.19</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.142800</v>
+        <v>-90.142799999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>75663.399106</v>
+        <v>75663.399105999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.017611</v>
+        <v>21.017610999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.925000</v>
+        <v>964.92499999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.593900</v>
+        <v>-80.593900000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>75673.582467</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.020440</v>
+        <v>21.020440000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>970.090000</v>
+        <v>970.09</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.069200</v>
+        <v>-80.069199999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>75683.748966</v>
+        <v>75683.748965999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>21.023264</v>
+        <v>21.023264000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.107000</v>
+        <v>978.10699999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.515900</v>
+        <v>-87.515900000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>75694.570215</v>
       </c>
       <c r="AP21" s="1">
-        <v>21.026270</v>
+        <v>21.02627</v>
       </c>
       <c r="AQ21" s="1">
-        <v>987.300000</v>
+        <v>987.3</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.180000</v>
+        <v>-102.18</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>75705.308601</v>
+        <v>75705.308600999997</v>
       </c>
       <c r="AU21" s="1">
         <v>21.029252</v>
       </c>
       <c r="AV21" s="1">
-        <v>998.640000</v>
+        <v>998.64</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.464000</v>
+        <v>-123.464</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>75716.009263</v>
@@ -5514,1390 +5930,1391 @@
         <v>21.032225</v>
       </c>
       <c r="BA21" s="1">
-        <v>1008.210000</v>
+        <v>1008.21</v>
       </c>
       <c r="BB21" s="1">
-        <v>-141.981000</v>
+        <v>-141.98099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>75727.015980</v>
+        <v>75727.015979999996</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.035282</v>
+        <v>21.035281999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1053.390000</v>
+        <v>1053.3900000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.045000</v>
+        <v>-226.04499999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>75738.348078</v>
+        <v>75738.348077999995</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.038430</v>
+        <v>21.038430000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.740000</v>
+        <v>1132.74</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.529000</v>
+        <v>-360.529</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>75749.256095</v>
+        <v>75749.256095000004</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.041460</v>
+        <v>21.041460000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1263.670000</v>
+        <v>1263.67</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-567.445000</v>
+        <v>-567.44500000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>75759.851633</v>
+        <v>75759.851632999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>21.044403</v>
+        <v>21.044402999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1409.620000</v>
+        <v>1409.62</v>
       </c>
       <c r="BV21" s="1">
-        <v>-787.772000</v>
+        <v>-787.77200000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>75770.773042</v>
+        <v>75770.773042000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.047437</v>
+        <v>21.047436999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1569.770000</v>
+        <v>1569.77</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1017.550000</v>
+        <v>-1017.55</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>75783.402674</v>
+        <v>75783.402673999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>21.050945</v>
+        <v>21.050944999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1971.220000</v>
+        <v>1971.22</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1555.800000</v>
+        <v>-1555.8</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>75610.844006</v>
+        <v>75610.844005999999</v>
       </c>
       <c r="B22" s="1">
-        <v>21.003012</v>
+        <v>21.003011999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>903.764000</v>
+        <v>903.76400000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-191.801000</v>
+        <v>-191.80099999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>75621.270904</v>
+        <v>75621.270904000005</v>
       </c>
       <c r="G22" s="1">
-        <v>21.005909</v>
+        <v>21.005908999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>920.742000</v>
+        <v>920.74199999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-163.330000</v>
+        <v>-163.33000000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>75632.133291</v>
+        <v>75632.133291000006</v>
       </c>
       <c r="L22" s="1">
-        <v>21.008926</v>
+        <v>21.008925999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>943.550000</v>
+        <v>943.55</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.430000</v>
+        <v>-118.43</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>75642.701052</v>
+        <v>75642.701052000004</v>
       </c>
       <c r="Q22" s="1">
         <v>21.011861</v>
       </c>
       <c r="R22" s="1">
-        <v>950.450000</v>
+        <v>950.45</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.589000</v>
+        <v>-103.589</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>75653.179534</v>
+        <v>75653.179533999995</v>
       </c>
       <c r="V22" s="1">
-        <v>21.014772</v>
+        <v>21.014772000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>957.311000</v>
+        <v>957.31100000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.078100</v>
+        <v>-90.078100000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>75663.746304</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.017707</v>
+        <v>21.017707000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.867000</v>
+        <v>964.86699999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.558300</v>
+        <v>-80.558300000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>75673.927682</v>
+        <v>75673.927681999994</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.020535</v>
+        <v>21.020534999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>970.068000</v>
+        <v>970.06799999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.009900</v>
+        <v>-80.009900000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>75684.415094</v>
+        <v>75684.415093999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.023449</v>
+        <v>21.023448999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.107000</v>
+        <v>978.10699999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.515700</v>
+        <v>-87.515699999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>75695.009142</v>
+        <v>75695.009141999995</v>
       </c>
       <c r="AP22" s="1">
         <v>21.026391</v>
       </c>
       <c r="AQ22" s="1">
-        <v>987.298000</v>
+        <v>987.298</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.166000</v>
+        <v>-102.166</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>75705.768856</v>
+        <v>75705.768855999995</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.029380</v>
+        <v>21.02938</v>
       </c>
       <c r="AV22" s="1">
-        <v>998.638000</v>
+        <v>998.63800000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.453000</v>
+        <v>-123.453</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>75716.384730</v>
+        <v>75716.384730000005</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.032329</v>
+        <v>21.032329000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1008.220000</v>
+        <v>1008.22</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.012000</v>
+        <v>-142.012</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>75727.378060</v>
+        <v>75727.378060000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>21.035383</v>
+        <v>21.035382999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1053.380000</v>
+        <v>1053.3800000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.053000</v>
+        <v>-226.053</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>75738.723550</v>
+        <v>75738.723549999995</v>
       </c>
       <c r="BJ22" s="1">
-        <v>21.038534</v>
+        <v>21.038533999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.720000</v>
+        <v>1132.72</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.510000</v>
+        <v>-360.51</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>75749.683647</v>
+        <v>75749.683646999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>21.041579</v>
+        <v>21.041578999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1263.650000</v>
+        <v>1263.6500000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-567.452000</v>
+        <v>-567.452</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>75760.282690</v>
+        <v>75760.282689999993</v>
       </c>
       <c r="BT22" s="1">
-        <v>21.044523</v>
+        <v>21.044523000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1409.630000</v>
+        <v>1409.63</v>
       </c>
       <c r="BV22" s="1">
-        <v>-787.895000</v>
+        <v>-787.89499999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>75771.186706</v>
+        <v>75771.186705999993</v>
       </c>
       <c r="BY22" s="1">
         <v>21.047552</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1569.710000</v>
+        <v>1569.71</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1017.570000</v>
+        <v>-1017.57</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>75783.920001</v>
+        <v>75783.920001000006</v>
       </c>
       <c r="CD22" s="1">
-        <v>21.051089</v>
+        <v>21.051089000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1971.370000</v>
+        <v>1971.37</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1554.010000</v>
+        <v>-1554.01</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>75611.523525</v>
+        <v>75611.523524999997</v>
       </c>
       <c r="B23" s="1">
-        <v>21.003201</v>
+        <v>21.003201000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>903.866000</v>
+        <v>903.86599999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-191.736000</v>
+        <v>-191.73599999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>75621.960840</v>
+        <v>75621.96084</v>
       </c>
       <c r="G23" s="1">
-        <v>21.006100</v>
+        <v>21.0061</v>
       </c>
       <c r="H23" s="1">
-        <v>920.524000</v>
+        <v>920.524</v>
       </c>
       <c r="I23" s="1">
-        <v>-163.695000</v>
+        <v>-163.69499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>75632.480985</v>
+        <v>75632.480985000002</v>
       </c>
       <c r="L23" s="1">
-        <v>21.009022</v>
+        <v>21.009022000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>943.525000</v>
+        <v>943.52499999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.437000</v>
+        <v>-118.437</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>75643.048252</v>
+        <v>75643.048251999993</v>
       </c>
       <c r="Q23" s="1">
         <v>21.011958</v>
       </c>
       <c r="R23" s="1">
-        <v>950.457000</v>
+        <v>950.45699999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.626000</v>
+        <v>-103.626</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>75653.524750</v>
+        <v>75653.524749999997</v>
       </c>
       <c r="V23" s="1">
         <v>21.014868</v>
       </c>
       <c r="W23" s="1">
-        <v>957.370000</v>
+        <v>957.37</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.143600</v>
+        <v>-90.143600000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>75664.410475</v>
+        <v>75664.410474999997</v>
       </c>
       <c r="AA23" s="1">
         <v>21.017892</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.898000</v>
+        <v>964.89800000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.605600</v>
+        <v>-80.605599999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>75674.602242</v>
+        <v>75674.602241999994</v>
       </c>
       <c r="AF23" s="1">
         <v>21.020723</v>
       </c>
       <c r="AG23" s="1">
-        <v>970.057000</v>
+        <v>970.05700000000002</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.037500</v>
+        <v>-80.037499999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>75684.796058</v>
+        <v>75684.796058000007</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.023554</v>
+        <v>21.023554000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.121000</v>
+        <v>978.12099999999998</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.528900</v>
+        <v>-87.528899999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>75695.372710</v>
+        <v>75695.372709999996</v>
       </c>
       <c r="AP23" s="1">
-        <v>21.026492</v>
+        <v>21.026492000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>987.316000</v>
+        <v>987.31600000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.174000</v>
+        <v>-102.17400000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>75706.132922</v>
+        <v>75706.132922000004</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.029481</v>
+        <v>21.029481000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>998.626000</v>
+        <v>998.62599999999998</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.452000</v>
+        <v>-123.452</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>75716.767146</v>
+        <v>75716.767145999998</v>
       </c>
       <c r="AZ23" s="1">
         <v>21.032435</v>
       </c>
       <c r="BA23" s="1">
-        <v>1008.230000</v>
+        <v>1008.23</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.019000</v>
+        <v>-142.01900000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>75727.802139</v>
+        <v>75727.802139000007</v>
       </c>
       <c r="BE23" s="1">
         <v>21.035501</v>
       </c>
       <c r="BF23" s="1">
-        <v>1053.390000</v>
+        <v>1053.3900000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.061000</v>
+        <v>-226.06100000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>75739.154113</v>
+        <v>75739.154112999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.038654</v>
+        <v>21.038654000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.730000</v>
+        <v>1132.73</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.503000</v>
+        <v>-360.50299999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>75750.075984</v>
+        <v>75750.075983999996</v>
       </c>
       <c r="BO23" s="1">
-        <v>21.041688</v>
+        <v>21.041688000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1263.650000</v>
+        <v>1263.6500000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-567.431000</v>
+        <v>-567.43100000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>75760.693376</v>
+        <v>75760.693375999996</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.044637</v>
+        <v>21.044637000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1409.590000</v>
+        <v>1409.59</v>
       </c>
       <c r="BV23" s="1">
-        <v>-787.881000</v>
+        <v>-787.88099999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>75771.613761</v>
+        <v>75771.613761000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.047670</v>
+        <v>21.04767</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1569.670000</v>
+        <v>1569.67</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1017.510000</v>
+        <v>-1017.51</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>75784.438353</v>
+        <v>75784.438353000005</v>
       </c>
       <c r="CD23" s="1">
         <v>21.051233</v>
       </c>
       <c r="CE23" s="1">
-        <v>1971.690000</v>
+        <v>1971.69</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1554.410000</v>
+        <v>-1554.41</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>75611.866261</v>
+        <v>75611.866261000003</v>
       </c>
       <c r="B24" s="1">
-        <v>21.003296</v>
+        <v>21.003295999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>903.828000</v>
+        <v>903.82799999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-191.891000</v>
+        <v>-191.89099999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>75622.304567</v>
+        <v>75622.304566999999</v>
       </c>
       <c r="G24" s="1">
-        <v>21.006196</v>
+        <v>21.006195999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>920.969000</v>
+        <v>920.96900000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-163.827000</v>
+        <v>-163.827</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>75632.823723</v>
+        <v>75632.823722999994</v>
       </c>
       <c r="L24" s="1">
-        <v>21.009118</v>
+        <v>21.009118000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>943.461000</v>
+        <v>943.46100000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.484000</v>
+        <v>-118.48399999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>75643.713419</v>
+        <v>75643.713419000007</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.012143</v>
+        <v>21.012142999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>950.461000</v>
+        <v>950.46100000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.647000</v>
+        <v>-103.64700000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>75654.188189</v>
+        <v>75654.188188999993</v>
       </c>
       <c r="V24" s="1">
-        <v>21.015052</v>
+        <v>21.015052000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>957.362000</v>
+        <v>957.36199999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.133800</v>
+        <v>-90.133799999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>75664.794352</v>
+        <v>75664.794351999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.017998</v>
+        <v>21.017997999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.951000</v>
+        <v>964.95100000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.586900</v>
+        <v>-80.5869</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>75674.961842</v>
+        <v>75674.961842000004</v>
       </c>
       <c r="AF24" s="1">
         <v>21.020823</v>
       </c>
       <c r="AG24" s="1">
-        <v>970.074000</v>
+        <v>970.07399999999996</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.064500</v>
+        <v>-80.064499999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>75685.141765</v>
+        <v>75685.141764999993</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.023650</v>
+        <v>21.02365</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.109000</v>
+        <v>978.10900000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.527600</v>
+        <v>-87.527600000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>75695.733302</v>
+        <v>75695.733301999993</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.026593</v>
+        <v>21.026592999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>987.308000</v>
+        <v>987.30799999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.181000</v>
+        <v>-102.181</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>75706.499464</v>
+        <v>75706.499463999993</v>
       </c>
       <c r="AU24" s="1">
-        <v>21.029583</v>
+        <v>21.029582999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>998.635000</v>
+        <v>998.63499999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.458000</v>
+        <v>-123.458</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>75717.199663</v>
+        <v>75717.199663000007</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.032555</v>
+        <v>21.032554999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1008.230000</v>
+        <v>1008.23</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.004000</v>
+        <v>-142.00399999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>75728.102251</v>
+        <v>75728.102251000004</v>
       </c>
       <c r="BE24" s="1">
         <v>21.035584</v>
       </c>
       <c r="BF24" s="1">
-        <v>1053.380000</v>
+        <v>1053.3800000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.059000</v>
+        <v>-226.059</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>75739.474498</v>
+        <v>75739.474497999996</v>
       </c>
       <c r="BJ24" s="1">
         <v>21.038743</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.740000</v>
+        <v>1132.74</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.496000</v>
+        <v>-360.49599999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>75750.490669</v>
+        <v>75750.490669000006</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.041803</v>
+        <v>21.041803000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1263.660000</v>
+        <v>1263.6600000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-567.484000</v>
+        <v>-567.48400000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>75761.126351</v>
+        <v>75761.126350999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>21.044757</v>
+        <v>21.044757000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1409.600000</v>
+        <v>1409.6</v>
       </c>
       <c r="BV24" s="1">
-        <v>-787.965000</v>
+        <v>-787.96500000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>75772.030897</v>
+        <v>75772.030897000004</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.047786</v>
+        <v>21.047785999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1569.600000</v>
+        <v>1569.6</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1017.760000</v>
+        <v>-1017.76</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>75784.989915</v>
+        <v>75784.989914999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>21.051386</v>
+        <v>21.051386000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1971.340000</v>
+        <v>1971.34</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1555.650000</v>
+        <v>-1555.65</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>75612.210484</v>
+        <v>75612.210483999996</v>
       </c>
       <c r="B25" s="1">
-        <v>21.003392</v>
+        <v>21.003392000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>903.843000</v>
+        <v>903.84299999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>-191.780000</v>
+        <v>-191.78</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>75622.654775</v>
+        <v>75622.654775000003</v>
       </c>
       <c r="G25" s="1">
-        <v>21.006293</v>
+        <v>21.006292999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>920.514000</v>
+        <v>920.51400000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-163.927000</v>
+        <v>-163.92699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>75633.478442</v>
+        <v>75633.478442000007</v>
       </c>
       <c r="L25" s="1">
-        <v>21.009300</v>
+        <v>21.0093</v>
       </c>
       <c r="M25" s="1">
-        <v>943.572000</v>
+        <v>943.572</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.497000</v>
+        <v>-118.497</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>75644.096794</v>
+        <v>75644.096793999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.012249</v>
+        <v>21.012249000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>950.403000</v>
+        <v>950.40300000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.635000</v>
+        <v>-103.63500000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>75654.559900</v>
+        <v>75654.559899999993</v>
       </c>
       <c r="V25" s="1">
-        <v>21.015156</v>
+        <v>21.015156000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>957.376000</v>
+        <v>957.37599999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.209900</v>
+        <v>-90.209900000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>75665.143071</v>
+        <v>75665.143070999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>21.018095</v>
+        <v>21.018094999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.979000</v>
+        <v>964.97900000000004</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.571900</v>
+        <v>-80.571899999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>75675.311026</v>
+        <v>75675.311025999996</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.020920</v>
+        <v>21.02092</v>
       </c>
       <c r="AG25" s="1">
-        <v>970.076000</v>
+        <v>970.07600000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.046200</v>
+        <v>-80.046199999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>75685.492404</v>
+        <v>75685.492404000004</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.023748</v>
+        <v>21.023748000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.122000</v>
+        <v>978.12199999999996</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.531200</v>
+        <v>-87.531199999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>75696.163829</v>
+        <v>75696.163828999997</v>
       </c>
       <c r="AP25" s="1">
         <v>21.026712</v>
       </c>
       <c r="AQ25" s="1">
-        <v>987.313000</v>
+        <v>987.31299999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.184000</v>
+        <v>-102.184</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>75706.934456</v>
+        <v>75706.934456000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.029704</v>
+        <v>21.029703999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>998.636000</v>
+        <v>998.63599999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.457000</v>
+        <v>-123.45699999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>75717.481385</v>
+        <v>75717.481385000006</v>
       </c>
       <c r="AZ25" s="1">
-        <v>21.032634</v>
+        <v>21.032634000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1008.210000</v>
+        <v>1008.21</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.001000</v>
+        <v>-142.001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>75728.460330</v>
+        <v>75728.460330000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>21.035683</v>
+        <v>21.035682999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1053.380000</v>
+        <v>1053.3800000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.051000</v>
+        <v>-226.05099999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>75739.858395</v>
+        <v>75739.858395000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>21.038850</v>
+        <v>21.03885</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.780000</v>
+        <v>1132.78</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.523000</v>
+        <v>-360.52300000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>75750.890909</v>
+        <v>75750.890908999994</v>
       </c>
       <c r="BO25" s="1">
-        <v>21.041914</v>
+        <v>21.041913999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1263.650000</v>
+        <v>1263.6500000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-567.473000</v>
+        <v>-567.47299999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>75761.555418</v>
+        <v>75761.555418000004</v>
       </c>
       <c r="BT25" s="1">
         <v>21.044877</v>
       </c>
       <c r="BU25" s="1">
-        <v>1409.630000</v>
+        <v>1409.63</v>
       </c>
       <c r="BV25" s="1">
-        <v>-788.080000</v>
+        <v>-788.08</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>75772.475841</v>
+        <v>75772.475841000007</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.047910</v>
+        <v>21.047910000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1569.730000</v>
+        <v>1569.73</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1017.570000</v>
+        <v>-1017.57</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>75785.521583</v>
+        <v>75785.521582999994</v>
       </c>
       <c r="CD25" s="1">
         <v>21.051534</v>
       </c>
       <c r="CE25" s="1">
-        <v>1971.120000</v>
+        <v>1971.12</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1553.970000</v>
+        <v>-1553.97</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>75612.866692</v>
+        <v>75612.866691999996</v>
       </c>
       <c r="B26" s="1">
         <v>21.003574</v>
       </c>
       <c r="C26" s="1">
-        <v>903.752000</v>
+        <v>903.75199999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-191.817000</v>
+        <v>-191.81700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>75623.312935</v>
+        <v>75623.312934999994</v>
       </c>
       <c r="G26" s="1">
-        <v>21.006476</v>
+        <v>21.006475999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>920.254000</v>
+        <v>920.25400000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-163.219000</v>
+        <v>-163.21899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>75633.862849</v>
+        <v>75633.862848999997</v>
       </c>
       <c r="L26" s="1">
-        <v>21.009406</v>
+        <v>21.009405999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>943.509000</v>
+        <v>943.50900000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.671000</v>
+        <v>-118.67100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>75644.443994</v>
+        <v>75644.443994000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.012346</v>
+        <v>21.012346000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>950.404000</v>
+        <v>950.404</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.627000</v>
+        <v>-103.627</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>75654.906140</v>
+        <v>75654.906140000006</v>
       </c>
       <c r="V26" s="1">
         <v>21.015252</v>
       </c>
       <c r="W26" s="1">
-        <v>957.394000</v>
+        <v>957.39400000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.170600</v>
+        <v>-90.170599999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>75665.492254</v>
+        <v>75665.492253999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>21.018192</v>
+        <v>21.018191999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.973000</v>
+        <v>964.97299999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.590800</v>
+        <v>-80.590800000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>75675.882416</v>
+        <v>75675.882415999993</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.021078</v>
+        <v>21.021077999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>970.061000</v>
+        <v>970.06100000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.050700</v>
+        <v>-80.050700000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>75685.921443</v>
+        <v>75685.921442999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.023867</v>
+        <v>21.023866999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.106000</v>
+        <v>978.10599999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.505200</v>
+        <v>-87.505200000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>75696.453989</v>
+        <v>75696.453989000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>21.026793</v>
+        <v>21.026793000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>987.307000</v>
+        <v>987.30700000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.189000</v>
+        <v>-102.18899999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>75707.227133</v>
+        <v>75707.227132999993</v>
       </c>
       <c r="AU26" s="1">
         <v>21.029785</v>
       </c>
       <c r="AV26" s="1">
-        <v>998.637000</v>
+        <v>998.63699999999994</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.462000</v>
+        <v>-123.462</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>75717.840489</v>
+        <v>75717.840488999995</v>
       </c>
       <c r="AZ26" s="1">
         <v>21.032733</v>
       </c>
       <c r="BA26" s="1">
-        <v>1008.220000</v>
+        <v>1008.22</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.003000</v>
+        <v>-142.00299999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>75728.820426</v>
+        <v>75728.820426000006</v>
       </c>
       <c r="BE26" s="1">
-        <v>21.035783</v>
+        <v>21.035782999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1053.380000</v>
+        <v>1053.3800000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.034000</v>
+        <v>-226.03399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>75740.249243</v>
+        <v>75740.249242999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.038958</v>
+        <v>21.038958000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.770000</v>
+        <v>1132.77</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.516000</v>
+        <v>-360.51600000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>75751.318989</v>
+        <v>75751.318989000007</v>
       </c>
       <c r="BO26" s="1">
         <v>21.042033</v>
       </c>
       <c r="BP26" s="1">
-        <v>1263.670000</v>
+        <v>1263.67</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-567.476000</v>
+        <v>-567.476</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>75761.965119</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.044990</v>
+        <v>21.044989999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1409.600000</v>
+        <v>1409.6</v>
       </c>
       <c r="BV26" s="1">
-        <v>-788.158000</v>
+        <v>-788.15800000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>75772.897409</v>
+        <v>75772.897408999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.048027</v>
+        <v>21.048027000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1569.750000</v>
+        <v>1569.75</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1017.540000</v>
+        <v>-1017.54</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>75786.040398</v>
+        <v>75786.040397999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.051678</v>
+        <v>21.051677999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1969.590000</v>
+        <v>1969.59</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1554.580000</v>
+        <v>-1554.58</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>